--- a/datosB.xlsx
+++ b/datosB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.9649863243103</v>
+        <v>83.0238950252533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>⎝ a ⎠⎝  b,c,d,e,f,g,h,i,j,k,l,m,n,o  ⎠</t>
+          <t>⎝ i ⎠⎝  a,b,c,d,e,f,g,h,j,k,l,m,n,o  ⎠</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -482,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.93604588508606</v>
+        <v>40.72217440605164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>⎝ a ⎠⎝   b,c,d,e,f,g,h,i,j,k,l,m,n   ⎠</t>
+          <t>⎝ m ⎠⎝   a,b,c,d,e,f,g,h,i,j,k,l,n   ⎠</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>41.70112442970276</v>
+        <v>35.04381012916565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>⎝ b ⎠⎝   c,d,e,f,g,h,i,j,k,l,m,n,o   ⎠</t>
+          <t>⎝ o ⎠⎝   b,c,d,e,f,g,h,i,j,k,l,m,n   ⎠</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -526,17 +526,1007 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.84268832206726</v>
+        <v>19.98887753486633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>⎝ b ⎠⎝    c,d,e,f,g,h,i,j,k,l,m,n    ⎠</t>
+          <t>⎝ g ⎠⎝    b,c,d,e,f,h,i,j,k,l,m,n    ⎠</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>⎛ L ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.004189789295196533</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.687353372573853</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝       a,c,e,g,i,k,m,o       ⎠</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>⎛ G ⎞⎛ A,B,C,D,E,F,H,I,J,K,L,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.007097363471984863</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.650965213775635</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝        b,d,f,h,j,l,n        ⎠</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>⎛ O ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.714727401733398e-05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.529985904693604</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝     a,b,d,e,g,h,j,k,m,n     ⎠</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>73.96156430244446</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ a,b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>39.26996111869812</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>⎝ m ⎠⎝  a,b,c,d,e,f,g,h,i,j,k,l,n  ⎠</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>27.24978828430176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝  b,c,d,e,f,g,h,i,j,k,l,m,n  ⎠</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17.43035459518433</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝   b,c,d,e,f,h,i,j,k,l,m,n   ⎠</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>⎛ L ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.004189789295196533</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.772952079772949</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝      a,c,e,g,i,k,m,o      ⎠</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>⎛ G ⎞⎛ A,B,C,D,E,F,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.007097363471984863</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.668209552764893</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝       b,d,f,h,j,l,n       ⎠</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>⎛ N ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,L,M ⎞</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.001337826251983643</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.923470020294189</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝    a,b,d,e,g,h,j,k,m,n    ⎠</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65.10308146476746</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ a,b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>34.63206744194031</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>⎝ m ⎠⎝  a,b,c,d,e,f,g,h,i,j,k,l,n  ⎠</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29.83568263053894</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝  b,c,d,e,f,g,h,i,j,k,l,m,n  ⎠</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>17.27879357337952</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝   b,c,d,e,f,h,i,j,k,l,m,n   ⎠</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>⎛ L ⎞⎛ B,C,D,E,F,G,H,I,J,K,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.004189789295196533</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.397834062576294</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝      a,c,e,g,i,k,m,o      ⎠</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>⎛ G ⎞⎛ B,C,D,E,F,H,I,J,K,L,M,N,O ⎞</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.007097363471984863</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.771320819854736</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝       b,d,f,h,j,l,n       ⎠</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>⎛ O ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4.714727401733398e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.093092441558838</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝    a,b,d,e,g,h,j,k,m,n    ⎠</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛  B,C,D,E,F,G,H,I,J,K,L,M,N  ⎞</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>59.31489777565002</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ a,b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>32.14478516578674</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝ a,b,c,d,e,f,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25.48942303657532</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>14.79279661178589</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝  b,c,d,e,f,h,i,j,k,l,m,n  ⎠</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>⎛ L ⎞⎛ B,C,D,E,F,G,H,I,J,K,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.004189789295196533</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.628322601318359</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝     a,c,e,g,i,k,m,o     ⎠</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>⎛ G ⎞⎛ B,C,D,E,F,H,I,J,K,L,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.007097363471984863</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.889654874801636</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝      b,d,f,h,j,l,n      ⎠</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>⎛ N ⎞⎛ B,C,D,E,F,G,H,I,J,K,L,M ⎞</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.001337826251983643</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.570480108261108</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝   a,b,d,e,g,h,j,k,m,n   ⎠</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛       A,C,E,G,I,K,M,O       ⎞</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>20.51004528999329</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>⎝ i ⎠⎝ a,b,c,d,e,f,g,h,j,k,l,m,n,o ⎠</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛      A,C,E,G,I,K,M,O      ⎞</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10.59983563423157</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝ a,b,c,d,e,f,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛      A,C,E,G,I,K,M,O      ⎞</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.420167207717896</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛     A,C,E,G,I,K,M,O     ⎞</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5.968948125839233</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝ b,c,d,e,f,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>⎛ E ⎞⎛  A,C,G,I,K,M,O  ⎞</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.005357503890991211</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.55366063117981</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝ a,c,e,g,i,k,m,o ⎠</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>⎛ G ⎞⎛ A,C,E,I,K,M,O ⎞</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.007097363471984863</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.147775650024414</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝ b,d,f,h,j,l,n ⎠</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>⎛ O ⎞⎛    A,C,E,G,I,K,M    ⎞</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.714727401733398e-05</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.299962282180786</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝ a,b,d,e,g,h,j,k,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛        B,D,F,H,J,L,N        ⎞</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>19.11802792549133</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>⎝ i ⎠⎝ a,b,c,d,e,f,g,h,j,k,l,m,n,o ⎠</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛       B,D,F,H,J,L,N       ⎞</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9.63065767288208</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝ a,b,c,d,e,f,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛       B,D,F,H,J,L,N       ⎞</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.158782243728638</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛      B,D,F,H,J,L,N      ⎞</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.48976731300354</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝ b,c,d,e,f,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>⎛ L ⎞⎛   B,D,F,H,J,N   ⎞</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.004189789295196533</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.020054578781128</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝ a,c,e,g,i,k,m,o ⎠</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>⎛ N ⎞⎛  B,D,F,H,J,L  ⎞</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.008794069290161133</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.114472150802612</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝ b,d,f,h,j,l,n ⎠</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>⎛ N ⎞⎛     B,D,F,H,J,L     ⎞</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.001337826251983643</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.014586687088013</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝ a,b,d,e,g,h,j,k,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛     A,B,D,E,G,H,J,K,M,N     ⎞</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>35.03789615631104</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ a,b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛    A,B,D,E,G,H,J,K,M,N    ⎞</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>19.40448522567749</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝ a,b,c,d,e,f,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛    A,B,D,E,G,H,J,K,M,N    ⎞</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>13.15579700469971</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>⎝ o ⎠⎝ b,c,d,e,f,g,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>⎛ ∅ ⎞⎛   A,B,D,E,G,H,J,K,M,N   ⎞</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>8.126436710357666</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>⎝ g ⎠⎝ b,c,d,e,f,h,i,j,k,l,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>⎛ E ⎞⎛ A,B,D,G,H,J,K,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.004378199577331543</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.629073143005371</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝  a,c,e,g,i,k,m,o  ⎠</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>⎛ G ⎞⎛ A,B,D,E,H,J,K,M,N ⎞</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.007097363471984863</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.993230104446411</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝   b,d,f,h,j,l,n   ⎠</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>⎛ N ⎞⎛  A,B,D,E,G,H,J,K,M  ⎞</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.001337826251983643</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.994107961654663</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>⎝ ∅ ⎠⎝ a,b,d,e,g,h,j,k,m,n ⎠</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
